--- a/教科書選定資料.xlsx
+++ b/教科書選定資料.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.110.236\教務構成管理\02_Doc\88_2018年度計画\51_教科書\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="194">
   <si>
     <t>H30年度</t>
     <rPh sb="3" eb="4">
@@ -464,16 +469,6 @@
     <t>python</t>
   </si>
   <si>
-    <t>日本語文法（Ｎ２）</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブンポウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本語 聴解（Ｎ２）</t>
     <rPh sb="0" eb="3">
       <t>ニホンゴ</t>
@@ -484,16 +479,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日本語 読解（Ｎ２）</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ドッカイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>漢字（７級）</t>
   </si>
   <si>
@@ -925,10 +910,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>デザインの学校 これからはじめるPhotoshopの本 [CC2017対応版]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>技術評論社</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1254,13 +1235,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>上級へのとびら</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>くろしお出版</t>
     <rPh sb="4" eb="6">
       <t>シュッパン</t>
@@ -1281,23 +1255,237 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>どんなときどう使う日本語</t>
-    <rPh sb="7" eb="8">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
+    <t>日本語 読解・文法（Ｎ２）</t>
+    <rPh sb="0" eb="3">
       <t>ニホンゴ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>株式会社アルク</t>
+    <rPh sb="4" eb="6">
+      <t>ドッカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンポウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本語語彙（Ｎ２）</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>みんなの日本語中級Ⅰ・Ⅱ　くり返して覚える単語帳</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スリーエーネットワーク</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>候補</t>
     <rPh sb="0" eb="2">
       <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ｎ２合格の為の語彙力強化</t>
+    <rPh sb="2" eb="4">
+      <t>ゴウカク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゴイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>どんなときどう使う日本語表現文法500　中・上級</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>株式会社アルク</t>
+  </si>
+  <si>
+    <t>Ｎ２合格の為の文法力強化。単語・表現文型を組合せ適切に使えるようになるため</t>
+    <rPh sb="2" eb="4">
+      <t>ゴウカク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンケイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>クミアワ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>上級へのとびら　これで身につく文法力</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>上級へのとびら</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Ｎ３文法の復習から中級Ｎ２最終段階までを網羅。２年次も引き続き使用する。Ｗｅｂサイトでの教材も豊富。</t>
+    <rPh sb="2" eb="4">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モウラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ネンジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ホウフ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>文法を完全に理解し、実際に使いこなせるようになるための教材。２年次も引き続き使用する。Ｗｅｂサイトでの教材も豊富。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ネンジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>学生が間違えやすい、手書き文字・印刷文字の違いをチェックする。Ｎ3漢字の復習をしつつＮ２レベルの漢字を中心に勉強できる。２年次も引き続き使用。</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>フクシュウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ネンジ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1410,12 +1598,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1449,7 +1643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1499,6 +1693,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1524,7 +1720,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1566,7 +1762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1601,7 +1797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1811,13 +2007,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X667"/>
+  <dimension ref="A1:Y667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomRight" activeCell="F680" sqref="F680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1835,7 +2031,7 @@
     <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1843,15 +2039,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1865,13 +2061,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -1892,40 +2088,41 @@
         <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R3" t="s">
         <v>165</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>167</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>168</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>169</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>170</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>171</v>
       </c>
-      <c r="V3" t="s">
-        <v>172</v>
-      </c>
-      <c r="W3" t="s">
-        <v>173</v>
-      </c>
-      <c r="X3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" s="22"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1948,13 +2145,13 @@
         <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>84</v>
       </c>
@@ -1965,7 +2162,7 @@
         <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -1974,25 +2171,25 @@
         <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K5">
         <v>2580</v>
       </c>
       <c r="L5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N5">
         <v>4767814073</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2012,16 +2209,16 @@
         <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2044,13 +2241,13 @@
         <v>13</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2073,13 +2270,13 @@
         <v>14</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>26</v>
       </c>
@@ -2102,25 +2299,25 @@
         <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K9">
         <v>1922</v>
       </c>
       <c r="L9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>62</v>
       </c>
@@ -2134,7 +2331,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
@@ -2143,25 +2340,25 @@
         <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K10">
         <v>1922</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2181,19 +2378,19 @@
         <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2213,19 +2410,19 @@
         <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>82</v>
       </c>
@@ -2236,7 +2433,7 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
@@ -2245,25 +2442,25 @@
         <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K13">
         <v>1922</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2283,19 +2480,19 @@
         <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2318,13 +2515,13 @@
         <v>21</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="14.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="14.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2347,19 +2544,19 @@
         <v>26</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K16">
         <v>1382</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N16" s="17">
         <v>4774193259</v>
@@ -2379,7 +2576,7 @@
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -2388,19 +2585,19 @@
         <v>26</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K17">
         <v>1382</v>
       </c>
       <c r="L17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N17">
         <v>4774193259</v>
@@ -2417,7 +2614,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
         <v>58</v>
@@ -2426,19 +2623,19 @@
         <v>64</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K18">
         <v>1814</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N18">
         <v>4798151637</v>
@@ -2480,7 +2677,7 @@
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
@@ -2512,10 +2709,10 @@
         <v>29</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2529,7 +2726,7 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -2538,7 +2735,7 @@
         <v>63</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -2565,10 +2762,10 @@
         <v>31</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2594,7 +2791,7 @@
         <v>32</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J24" s="11"/>
     </row>
@@ -2609,7 +2806,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
@@ -2618,7 +2815,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J25" s="3"/>
     </row>
@@ -2639,16 +2836,16 @@
         <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
       </c>
       <c r="I26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2674,19 +2871,19 @@
         <v>27</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K27">
         <v>1922</v>
       </c>
       <c r="L27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2700,7 +2897,7 @@
         <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
         <v>54</v>
@@ -2709,19 +2906,19 @@
         <v>74</v>
       </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K28">
         <v>1922</v>
       </c>
       <c r="L28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2747,7 +2944,7 @@
         <v>37</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J29" s="3"/>
     </row>
@@ -2762,16 +2959,16 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
         <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2797,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J31" s="3"/>
     </row>
@@ -2824,7 +3021,7 @@
         <v>40</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J32" s="11"/>
     </row>
@@ -2851,7 +3048,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J33" s="3"/>
     </row>
@@ -2869,7 +3066,7 @@
         <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
         <v>54</v>
@@ -2878,10 +3075,10 @@
         <v>10</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2898,7 +3095,7 @@
         <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
         <v>56</v>
@@ -2907,7 +3104,7 @@
         <v>15</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J35" s="3"/>
     </row>
@@ -2925,7 +3122,7 @@
         <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
         <v>54</v>
@@ -2934,10 +3131,10 @@
         <v>12</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2954,7 +3151,7 @@
         <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>58</v>
@@ -2963,10 +3160,10 @@
         <v>13</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2983,7 +3180,7 @@
         <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
         <v>58</v>
@@ -2992,10 +3189,10 @@
         <v>14</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.25">
@@ -3021,22 +3218,22 @@
         <v>38</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K39">
         <v>2030</v>
       </c>
       <c r="L39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3053,7 +3250,7 @@
         <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
         <v>59</v>
@@ -3062,10 +3259,10 @@
         <v>44</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3082,7 +3279,7 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
         <v>59</v>
@@ -3091,10 +3288,10 @@
         <v>17</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3111,7 +3308,7 @@
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F42" t="s">
         <v>59</v>
@@ -3120,10 +3317,10 @@
         <v>18</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3140,7 +3337,7 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
         <v>57</v>
@@ -3149,10 +3346,10 @@
         <v>45</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3169,7 +3366,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F44" t="s">
         <v>59</v>
@@ -3178,10 +3375,10 @@
         <v>21</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3198,7 +3395,7 @@
         <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s">
         <v>57</v>
@@ -3207,7 +3404,7 @@
         <v>32</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J45" s="15"/>
     </row>
@@ -3225,7 +3422,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
         <v>56</v>
@@ -3234,22 +3431,22 @@
         <v>38</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K46">
         <v>2030</v>
       </c>
       <c r="L46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3269,10 +3466,10 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
@@ -3291,7 +3488,7 @@
         <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
         <v>58</v>
@@ -3300,7 +3497,7 @@
         <v>14</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J48" s="3"/>
     </row>
@@ -3318,7 +3515,7 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
         <v>56</v>
@@ -3327,7 +3524,7 @@
         <v>37</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J49" s="3"/>
     </row>
@@ -3354,19 +3551,19 @@
         <v>36</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>148</v>
       </c>
       <c r="K50">
         <v>2138</v>
       </c>
       <c r="L50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N50">
         <v>4774187194</v>
@@ -3386,19 +3583,19 @@
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s">
         <v>34</v>
       </c>
       <c r="I51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3415,7 +3612,7 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
         <v>56</v>
@@ -3424,19 +3621,19 @@
         <v>36</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="K52">
         <v>2138</v>
       </c>
       <c r="L52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N52">
         <v>4774187194</v>
@@ -3456,7 +3653,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
         <v>59</v>
@@ -3465,10 +3662,10 @@
         <v>50</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3485,7 +3682,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
         <v>57</v>
@@ -3494,7 +3691,7 @@
         <v>40</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J54" s="15"/>
     </row>
@@ -3509,13 +3706,13 @@
         <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
         <v>59</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3532,16 +3729,16 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s">
         <v>51</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J56" s="3"/>
     </row>
@@ -3559,16 +3756,16 @@
         <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s">
         <v>51</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J57" s="3"/>
     </row>
@@ -3586,7 +3783,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F58" t="s">
         <v>58</v>
@@ -3595,10 +3792,10 @@
         <v>12</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3615,7 +3812,7 @@
         <v>61</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F59" t="s">
         <v>58</v>
@@ -3624,10 +3821,10 @@
         <v>13</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3644,7 +3841,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F60" t="s">
         <v>58</v>
@@ -3653,10 +3850,10 @@
         <v>48</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3673,16 +3870,16 @@
         <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s">
         <v>34</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J61" s="3"/>
     </row>
@@ -3700,7 +3897,7 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F62" t="s">
         <v>59</v>
@@ -3709,10 +3906,10 @@
         <v>44</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3729,16 +3926,16 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s">
         <v>46</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J63" s="3"/>
     </row>
@@ -3756,7 +3953,7 @@
         <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F64" t="s">
         <v>59</v>
@@ -3765,10 +3962,10 @@
         <v>17</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3785,7 +3982,7 @@
         <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s">
         <v>59</v>
@@ -3794,10 +3991,10 @@
         <v>18</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3814,7 +4011,7 @@
         <v>61</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F66" t="s">
         <v>59</v>
@@ -3823,7 +4020,7 @@
         <v>60</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J66" s="11"/>
     </row>
@@ -3841,7 +4038,7 @@
         <v>61</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F67" t="s">
         <v>59</v>
@@ -3850,10 +4047,10 @@
         <v>21</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3870,7 +4067,7 @@
         <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F68" t="s">
         <v>59</v>
@@ -3879,7 +4076,7 @@
         <v>40</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J68" s="11"/>
     </row>
@@ -3900,13 +4097,13 @@
         <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s">
         <v>39</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J69" s="3"/>
     </row>
@@ -3924,16 +4121,16 @@
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s">
         <v>39</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J70" s="3"/>
     </row>
@@ -3945,7 +4142,7 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s">
         <v>58</v>
@@ -3954,14 +4151,14 @@
         <v>49</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J71" s="3"/>
       <c r="L71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3981,7 +4178,7 @@
         <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s">
         <v>30</v>
@@ -4000,16 +4197,16 @@
         <v>70</v>
       </c>
       <c r="E73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s">
         <v>69</v>
       </c>
       <c r="H73" t="s">
-        <v>76</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>144</v>
+        <v>75</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4023,7 +4220,7 @@
         <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s">
         <v>69</v>
@@ -4031,8 +4228,8 @@
       <c r="H74" t="s">
         <v>66</v>
       </c>
-      <c r="I74" s="19" t="s">
-        <v>144</v>
+      <c r="I74" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4046,25 +4243,28 @@
         <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s">
         <v>69</v>
       </c>
-      <c r="H75" t="s">
-        <v>77</v>
+      <c r="H75" s="21" t="s">
+        <v>180</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J75" s="19" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K75" s="1">
-        <v>3300</v>
-      </c>
-      <c r="L75" t="s">
-        <v>186</v>
+        <v>1512</v>
+      </c>
+      <c r="L75" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M75" s="19" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4078,7 +4278,7 @@
         <v>70</v>
       </c>
       <c r="E76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F76" t="s">
         <v>69</v>
@@ -4087,16 +4287,19 @@
         <v>67</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="J76" s="19" t="s">
-        <v>182</v>
+        <v>190</v>
+      </c>
+      <c r="J76" t="s">
+        <v>178</v>
       </c>
       <c r="K76" s="1">
-        <v>3300</v>
+        <v>3564</v>
       </c>
       <c r="L76" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="M76" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4110,25 +4313,28 @@
         <v>70</v>
       </c>
       <c r="E77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s">
         <v>69</v>
       </c>
-      <c r="H77" t="s">
-        <v>75</v>
+      <c r="H77" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="I77" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J77" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1944</v>
+      </c>
+      <c r="L77" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="J77" s="19" t="s">
+      <c r="M77" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="K77" s="1">
-        <v>1400</v>
-      </c>
-      <c r="L77" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4142,7 +4348,7 @@
         <v>70</v>
       </c>
       <c r="E78" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F78" t="s">
         <v>69</v>
@@ -4150,8 +4356,21 @@
       <c r="H78" t="s">
         <v>65</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="I78" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J78" t="s">
+        <v>178</v>
+      </c>
+      <c r="K78" s="1">
+        <v>2376</v>
+      </c>
+      <c r="L78" t="s">
+        <v>184</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79">
@@ -4170,13 +4389,13 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s">
         <v>22</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J79" s="3"/>
     </row>
@@ -4194,7 +4413,7 @@
         <v>61</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F80" t="s">
         <v>58</v>
@@ -4216,7 +4435,7 @@
         <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s">
         <v>56</v>
@@ -4225,16 +4444,16 @@
         <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K81" s="1">
         <v>2139</v>
       </c>
       <c r="M81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4248,7 +4467,7 @@
         <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F82" t="s">
         <v>58</v>
@@ -4270,13 +4489,13 @@
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F83" t="s">
         <v>59</v>
       </c>
       <c r="H83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4296,10 +4515,10 @@
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G84" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H84" t="s">
         <v>19</v>
@@ -4318,22 +4537,28 @@
         <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F85" t="s">
         <v>69</v>
       </c>
       <c r="H85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I85" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J85" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K85" s="1">
-        <v>2200</v>
+        <v>2376</v>
+      </c>
+      <c r="L85" t="s">
+        <v>124</v>
+      </c>
+      <c r="M85" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4347,7 +4572,7 @@
         <v>70</v>
       </c>
       <c r="E86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F86" t="s">
         <v>69</v>
@@ -4356,13 +4581,19 @@
         <v>68</v>
       </c>
       <c r="I86" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J86" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K86" s="1">
-        <v>2200</v>
+        <v>2376</v>
+      </c>
+      <c r="L86" t="s">
+        <v>124</v>
+      </c>
+      <c r="M86" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4376,7 +4607,7 @@
         <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F87" t="s">
         <v>58</v>
@@ -4385,19 +4616,19 @@
         <v>12</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J87" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K87">
         <v>540</v>
       </c>
       <c r="L87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4411,7 +4642,7 @@
         <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F88" t="s">
         <v>58</v>
@@ -4459,7 +4690,7 @@
         <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F90" t="s">
         <v>54</v>
@@ -4481,31 +4712,31 @@
         <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F91" t="s">
         <v>56</v>
       </c>
       <c r="H91" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K91">
         <v>2030</v>
       </c>
       <c r="L91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N91" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4519,28 +4750,28 @@
         <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F92" t="s">
         <v>56</v>
       </c>
       <c r="H92" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K92">
         <v>2030</v>
       </c>
       <c r="L92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N92">
         <v>4774187186</v>
@@ -4557,28 +4788,28 @@
         <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F93" t="s">
         <v>56</v>
       </c>
       <c r="H93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I93" t="s">
+        <v>143</v>
+      </c>
+      <c r="J93" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="J93" s="18" t="s">
-        <v>150</v>
       </c>
       <c r="K93">
         <v>2138</v>
       </c>
       <c r="L93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N93">
         <v>4774187194</v>
@@ -4598,7 +4829,7 @@
         <v>61</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F94" t="s">
         <v>58</v>
@@ -4626,13 +4857,13 @@
         <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s">
         <v>33</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J95" s="3"/>
     </row>
@@ -4653,13 +4884,13 @@
         <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H96" t="s">
         <v>33</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J96" s="3"/>
     </row>
@@ -4674,16 +4905,16 @@
         <v>25</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F97" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:9">
